--- a/military_data_2023.xlsx
+++ b/military_data_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>country_name</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>bombers</t>
+  </si>
+  <si>
+    <t>fightaircrafts</t>
+  </si>
+  <si>
+    <t>aew</t>
   </si>
   <si>
     <t>Japan</t>
@@ -1341,15 +1347,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1467,13 +1473,19 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:39">
+    <row r="2" s="1" customFormat="1" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
@@ -1586,13 +1598,19 @@
       <c r="AM2" s="1">
         <v>0</v>
       </c>
+      <c r="AN2" s="1">
+        <v>244</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:39">
+    <row r="3" s="1" customFormat="1" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -1705,13 +1723,19 @@
       <c r="AM3" s="1">
         <v>0</v>
       </c>
+      <c r="AN3" s="1">
+        <v>500</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:39">
+    <row r="4" s="1" customFormat="1" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1824,13 +1848,19 @@
       <c r="AM4" s="1">
         <v>0</v>
       </c>
+      <c r="AN4" s="1">
+        <v>707</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:39">
+    <row r="5" s="1" customFormat="1" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1943,13 +1973,19 @@
       <c r="AM5" s="1">
         <v>100</v>
       </c>
+      <c r="AN5" s="1">
+        <v>1570</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:39">
+    <row r="6" s="1" customFormat="1" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -2062,13 +2098,19 @@
       <c r="AM6" s="1">
         <v>137</v>
       </c>
+      <c r="AN6" s="1">
+        <v>1517</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:39">
+    <row r="7" s="1" customFormat="1" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2180,6 +2222,12 @@
       </c>
       <c r="AM7" s="1">
         <v>139</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>2757</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
